--- a/tests/data/input/一级报告详情测试用例-13001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-13001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -85,37 +85,11 @@
     <t>sms_debt_time_amt</t>
   </si>
   <si>
-    <t xml:space="preserve">info_sms.sms_id;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sms_reg_org_cnt=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sms_app_org_cnt=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">info_sms.sms_id;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_sms.sms_id;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_sms.sms_id;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_sms.sms_id;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_sms.sms_id;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,14 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sms_overdue_time_amt=['最近6个月:1W～3W','最近1个月:5W～10W']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms_debt_time_amt=['最近6个月:1W～3W','最近1个月:5W～10W']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info_sms_overdue_platform.sms_id; info_sms_overdue_platform.overdue_time[0]="2018-03-05";
 info_sms_overdue_platform.platform_code[0]="EM_0000183699";                 info_sms_overdue_platform.overdue_time[1]="2019-03-05";
 info_sms_overdue_platform.platform_code[1]="EM_0000183261";             info_sms_overdue_platform.overdue_time[2]="2019-06-05";
@@ -203,6 +169,40 @@
 info_sms_debt.debt_money[0]="0W～0.2W"; info_sms_debt.platform_code[1]="EM_0000183261";
 info_sms_debt.debt_money[1]="1W～3W";  info_sms_debt.platform_code[2]="EM_0000183224";
 info_sms_debt.debt_money[2]="5W～10W"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_overdue_time_amt=['最近6个月:1W～3W', '最近1个月:5W～10W']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_debt_time_amt=['最近6个月:1W～3W', '最近1个月:5W～10W']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">info_sms.sms_id
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_sms.sms_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_sms.sms_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_sms.sms_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_sms.sms_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_sms.sms_id;
+info_sms.create_time="2019-07-03"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,16 +652,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -680,16 +680,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
@@ -736,16 +736,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -764,16 +764,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
@@ -792,16 +792,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -823,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
@@ -848,16 +848,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
@@ -868,5 +868,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data/input/一级报告详情测试用例-13001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-13001.xlsx
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sms_loan_amout_avg=3.20W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info_sms_overdue_platform.sms_id; info_sms_overdue_platform.overdue_time[0]="2018-03-05";
 info_sms_overdue_platform.overdue_money[0]="0W～0.2W"; info_sms_overdue_platform.overdue_time[1]="2019-03-05";
 info_sms_overdue_platform.overdue_money[1]="1W～3W"; info_sms_overdue_platform.overdue_time[2]="2019-06-05";
@@ -203,6 +199,10 @@
   <si>
     <t>info_sms.sms_id;
 info_sms.create_time="2019-07-03"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_loan_amout_avg=3.2W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
@@ -680,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>29</v>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>30</v>
@@ -736,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
@@ -764,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
@@ -792,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -823,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
@@ -848,16 +848,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>

--- a/tests/data/input/一级报告详情测试用例-13001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-13001.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DC3A1-99B5-4AC1-BBDB-CDDB4F39EBC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>用例编号</t>
   </si>
@@ -205,11 +206,35 @@
     <t>sms_loan_amout_avg=3.2W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sms_reg_org_cnt=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_app_org_cnt=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_loan_org_cnt=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_reject_org_cnt=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_overdue_time_amt=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms_debt_time_amt=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,6 +406,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -416,6 +458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,25 +650,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="61.375" customWidth="1"/>
-    <col min="6" max="6" width="37.125" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="10" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="5" max="5" width="61.36328125" customWidth="1"/>
+    <col min="6" max="6" width="37.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="10" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="70" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -669,27 +728,25 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -697,27 +754,27 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
@@ -725,27 +782,25 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -753,27 +808,27 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="70" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
@@ -781,27 +836,25 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -809,27 +862,27 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="70" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
@@ -837,33 +890,193 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="56" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="98" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
